--- a/www/IndicatorsPerCountry/Pakistan_CopperProduction_TerritorialRef_1971_2012_CCode_586.xlsx
+++ b/www/IndicatorsPerCountry/Pakistan_CopperProduction_TerritorialRef_1971_2012_CCode_586.xlsx
@@ -189,13 +189,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Copper Production. http://hdl.handle.net/10622/GI7D06, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Pakistan_CopperProduction_TerritorialRef_1971_2012_CCode_586.xlsx
+++ b/www/IndicatorsPerCountry/Pakistan_CopperProduction_TerritorialRef_1971_2012_CCode_586.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="29">
   <si>
     <t>Country Code</t>
   </si>
@@ -39,127 +39,31 @@
     <t>0</t>
   </si>
   <si>
-    <t>124</t>
+    <t>3.2</t>
   </si>
   <si>
-    <t>182.9</t>
+    <t>15</t>
   </si>
   <si>
-    <t>184.1</t>
+    <t>17.7</t>
   </si>
   <si>
-    <t>172.5</t>
+    <t>19.1</t>
   </si>
   <si>
-    <t>176.5</t>
+    <t>18.7</t>
   </si>
   <si>
-    <t>182.3</t>
+    <t>18.5</t>
   </si>
   <si>
-    <t>198.6</t>
+    <t>18</t>
   </si>
   <si>
-    <t>170.8</t>
+    <t>19</t>
   </si>
   <si>
-    <t>146.8</t>
-  </si>
-  <si>
-    <t>165.42</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>183.2</t>
-  </si>
-  <si>
-    <t>164.4</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>178.9</t>
-  </si>
-  <si>
-    <t>217.7</t>
-  </si>
-  <si>
-    <t>218.6</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>170.2</t>
-  </si>
-  <si>
-    <t>204.5</t>
-  </si>
-  <si>
-    <t>193.4</t>
-  </si>
-  <si>
-    <t>203.945</t>
-  </si>
-  <si>
-    <t>209.329</t>
-  </si>
-  <si>
-    <t>212.737</t>
-  </si>
-  <si>
-    <t>168.024</t>
-  </si>
-  <si>
-    <t>111.7</t>
-  </si>
-  <si>
-    <t>152.2</t>
-  </si>
-  <si>
-    <t>187.921</t>
-  </si>
-  <si>
-    <t>200.9</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>211.311</t>
-  </si>
-  <si>
-    <t>202.3</t>
-  </si>
-  <si>
-    <t>173.37</t>
-  </si>
-  <si>
-    <t>192.978</t>
-  </si>
-  <si>
-    <t>194.355</t>
-  </si>
-  <si>
-    <t>169.184</t>
-  </si>
-  <si>
-    <t>159.65</t>
-  </si>
-  <si>
-    <t>166.7</t>
-  </si>
-  <si>
-    <t>159.8</t>
-  </si>
-  <si>
-    <t>130.465</t>
-  </si>
-  <si>
-    <t>125.348</t>
+    <t>24</t>
   </si>
   <si>
     <t>Description</t>
@@ -4408,7 +4312,7 @@
         <v>1972.0</v>
       </c>
       <c r="E245" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="246">
@@ -4425,7 +4329,7 @@
         <v>1973.0</v>
       </c>
       <c r="E246" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="247">
@@ -4442,7 +4346,7 @@
         <v>1974.0</v>
       </c>
       <c r="E247" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248">
@@ -4459,7 +4363,7 @@
         <v>1975.0</v>
       </c>
       <c r="E248" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249">
@@ -4476,7 +4380,7 @@
         <v>1976.0</v>
       </c>
       <c r="E249" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="250">
@@ -4493,7 +4397,7 @@
         <v>1977.0</v>
       </c>
       <c r="E250" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="251">
@@ -4510,7 +4414,7 @@
         <v>1978.0</v>
       </c>
       <c r="E251" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252">
@@ -4527,7 +4431,7 @@
         <v>1979.0</v>
       </c>
       <c r="E252" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="253">
@@ -4544,7 +4448,7 @@
         <v>1980.0</v>
       </c>
       <c r="E253" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="254">
@@ -4561,7 +4465,7 @@
         <v>1981.0</v>
       </c>
       <c r="E254" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255">
@@ -4578,7 +4482,7 @@
         <v>1982.0</v>
       </c>
       <c r="E255" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256">
@@ -4595,7 +4499,7 @@
         <v>1983.0</v>
       </c>
       <c r="E256" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257">
@@ -4612,7 +4516,7 @@
         <v>1984.0</v>
       </c>
       <c r="E257" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="258">
@@ -4629,7 +4533,7 @@
         <v>1985.0</v>
       </c>
       <c r="E258" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="259">
@@ -4646,7 +4550,7 @@
         <v>1986.0</v>
       </c>
       <c r="E259" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260">
@@ -4663,7 +4567,7 @@
         <v>1987.0</v>
       </c>
       <c r="E260" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="261">
@@ -4680,7 +4584,7 @@
         <v>1988.0</v>
       </c>
       <c r="E261" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262">
@@ -4697,7 +4601,7 @@
         <v>1989.0</v>
       </c>
       <c r="E262" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="263">
@@ -4714,7 +4618,7 @@
         <v>1990.0</v>
       </c>
       <c r="E263" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264">
@@ -4731,7 +4635,7 @@
         <v>1991.0</v>
       </c>
       <c r="E264" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="265">
@@ -4748,7 +4652,7 @@
         <v>1992.0</v>
       </c>
       <c r="E265" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266">
@@ -4765,7 +4669,7 @@
         <v>1993.0</v>
       </c>
       <c r="E266" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="267">
@@ -4782,7 +4686,7 @@
         <v>1994.0</v>
       </c>
       <c r="E267" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268">
@@ -4799,7 +4703,7 @@
         <v>1995.0</v>
       </c>
       <c r="E268" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269">
@@ -4816,7 +4720,7 @@
         <v>1996.0</v>
       </c>
       <c r="E269" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="270">
@@ -4833,7 +4737,7 @@
         <v>1997.0</v>
       </c>
       <c r="E270" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="271">
@@ -4850,7 +4754,7 @@
         <v>1998.0</v>
       </c>
       <c r="E271" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="272">
@@ -4867,7 +4771,7 @@
         <v>1999.0</v>
       </c>
       <c r="E272" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273">
@@ -4884,7 +4788,7 @@
         <v>2000.0</v>
       </c>
       <c r="E273" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274">
@@ -4901,7 +4805,7 @@
         <v>2001.0</v>
       </c>
       <c r="E274" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="275">
@@ -4918,7 +4822,7 @@
         <v>2002.0</v>
       </c>
       <c r="E275" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="276">
@@ -4935,7 +4839,7 @@
         <v>2003.0</v>
       </c>
       <c r="E276" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="277">
@@ -4952,7 +4856,7 @@
         <v>2004.0</v>
       </c>
       <c r="E277" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="278">
@@ -4969,7 +4873,7 @@
         <v>2005.0</v>
       </c>
       <c r="E278" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279">
@@ -4986,7 +4890,7 @@
         <v>2006.0</v>
       </c>
       <c r="E279" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="280">
@@ -5003,7 +4907,7 @@
         <v>2007.0</v>
       </c>
       <c r="E280" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="281">
@@ -5020,7 +4924,7 @@
         <v>2008.0</v>
       </c>
       <c r="E281" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="282">
@@ -5037,7 +4941,7 @@
         <v>2009.0</v>
       </c>
       <c r="E282" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="283">
@@ -5054,7 +4958,7 @@
         <v>2010.0</v>
       </c>
       <c r="E283" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="284">
@@ -5071,7 +4975,7 @@
         <v>2011.0</v>
       </c>
       <c r="E284" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="285">
@@ -5088,7 +4992,7 @@
         <v>2012.0</v>
       </c>
       <c r="E285" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -5106,50 +5010,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
